--- a/Data Collection/Authors/Miriam Meckel/articles_Meckel_Jan_1.xlsx
+++ b/Data Collection/Authors/Miriam Meckel/articles_Meckel_Jan_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Miriam Meckel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="265" documentId="11_CF969EDC0D61ACB34DFEFA7A4CF9080541A63919" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{104A337A-9B68-495B-BBA0-031489E69DB5}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="145">
   <si>
     <t>title</t>
   </si>
@@ -25,18 +31,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -49,9 +49,6 @@
     <t>So viel Arbeitszeit geht durch geschlossene Schulen und ...</t>
   </si>
   <si>
-    <t>turi2 am Morgen: Lockdown-Verschärfung, Carsten Dorn ...</t>
-  </si>
-  <si>
     <t>turi2 am Abend: RTL, Stephan Schmitter, Angela Merkel. | turi2</t>
   </si>
   <si>
@@ -64,18 +61,6 @@
     <t>Turi2</t>
   </si>
   <si>
-    <t>4 Jan 2021</t>
-  </si>
-  <si>
-    <t>13 Jan 2021</t>
-  </si>
-  <si>
-    <t>6 Jan 2021</t>
-  </si>
-  <si>
-    <t>11 Jan 2021</t>
-  </si>
-  <si>
     <t>Das diskutiert Handelsblatt-Redakteur Sebastian Matthes im Jahresauftakt-Podcast mit Miriam Meckel, der Gründerin der Bildungsplattform ada. Haben Sie ...</t>
   </si>
   <si>
@@ -85,9 +70,6 @@
     <t>Wie die Corona-Krise die Arbeitswelt verändert – mit HSG-Professorin Miriam Meckel: The episode was not found or is unavailable. Eine Schulschliessung über ...</t>
   </si>
   <si>
-    <t>Mit Tijen Onaran, Philipp Westermeyer, Miriam Meckel, Christoph Kull, Wencke Tzanakakis, Martin Brüning, Ruth Betz und Andrea Becher. In der turi2 edition ...</t>
-  </si>
-  <si>
     <t>Erste Gesprächspartnerin ist Miriam Meckel, geplant sind weitere Gespräche mit Judith Williams und Verena Pausder. Alle vier bis sechs Wochen erscheint eine ...</t>
   </si>
   <si>
@@ -100,13 +82,7 @@
     <t>https://www.handelszeitung.ch/konjunktur/so-viel-arbeitszeit-geht-durch-geschlossene-schulen-und-kitas-verloren</t>
   </si>
   <si>
-    <t>https://www.turi2.de/heute/turi2-morgen-06-01-2021/</t>
-  </si>
-  <si>
     <t>https://www.turi2.de/heute/turi2-abend-11-01-2021/</t>
-  </si>
-  <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
   </si>
   <si>
     <t>Düsseldorf Was für ein Jahr, das da hinter uns liegt: Die Wirtschaft hat in der Coronakrise einen kräftigen Digitalisierungsschub erlebt, die großen Technologiekonzerne einen märchenhaften Börsenaufstieg – und Chinas Macht in der Technologiewelt wurde so deutlich wie nie zuvor.
@@ -127,25 +103,472 @@
 Fällt der Schulunterricht über drei Monate aus – wie es in den meisten Ländern im Frühjahr 2020, einschliesslich der Schweiz der Fall war – schrumpft das BIP eines Landes um durchschnittlich 1,5 Prozent, und zwar über die nächsten Jahrzehnte hinweg, so die Schätzung der OECD.</t>
   </si>
   <si>
-    <t>Lenz Jacobsen sieht in den neuen Regeln “das letzte Mittel einer Politik, die sich nicht mehr anders zu helfen weiß”.
-Stefan Braun wünscht sich in der “Süddeutschen Zeitung” wieder mehr Empathie in der Kommunikation der Kanzlerin und ihrer Kolleg*innen.
-new-business.de, turi2.de (Background)FAZ organsiert ihre bisherigen Teams für den Print- und Digital-Vertrieb und für die digitale Produktentwicklung unter dem Dach der neuen Abteilung Product + Sales.
-Sie hat den Streaming-Dienst verlassen, “um sich anderen Aufgaben zu widmen”, sagt eine Sprecherin zu DWDL.
-turi2.de/koepfe (Profil Buhr)– Anzeige –Die dystopische Miniserie “Years and Years” zeigt in nur 6 Folgen, wohin der Weg uns führt, wenn wir so weiter machen wie bisher – atomare Angriffe, Flüchtlingsströme, Finanzkrisen und und und.</t>
-  </si>
-  <si>
     <t>Politischer Dreikampf: RTL verabschiedet sich vom klassischen TV-Duell im Vorfeld der Bundestagswahl und will die Kanzlerkandidat*innen von CDU/CSU, SPD und Grünen zum “Wahl-Triell” bitten.
 Mit der Beteiligung der Grünen reagiere RTL auf die “veränderte politische Landschaft” in Deutschland.
 weiterlesen auf turi2.de, dwdl.deRadio und Podcast unter einem Dach: Stephan Schmitter zeigt das Herz der Audio Alliance in Berlin.
 horizont.net (Paid), turi2.de (Background Ahrens)Quanten-Allianz: Der Pharmakonzern Boehringer Ingelheim kooperiert mit der Google-Mutter Alphabet beim Einsatz von Quanten­computern.
 taz.deHome-Office taugt nicht “als dominierendes Leitmotiv für die neue Arbeitswelt”, schreibt Sven Astheimer.</t>
   </si>
+  <si>
+    <t>Kroymann: Sendung zu LGBT in der Medienbranche</t>
+  </si>
+  <si>
+    <t>Süddeutsche Zeitung</t>
+  </si>
+  <si>
+    <t>Comedienne Tahnee Schaffarczyk zum Beispiel, Georg Uecker, den man aus der Lindenstraße kennt, Kommunikationswissenschaftlerin Miriam Meckel.</t>
+  </si>
+  <si>
+    <t>https://www.sueddeutsche.de/medien/maren-kroymann-sexuelle-orientierung-kurzsichtig-video-1.5187637</t>
+  </si>
+  <si>
+    <t>Maren Kroymann macht in ihrer Comedy-Sendung den Umgang mit Lesben, Schwulen und Transgender in der Filmbranche zum Thema - mit einem Brillensong.
+In ihrer Comedy-Sendung Kroymann macht sie nun selbst den Umgang mit LGBT - kurz für Lesbian, Gay, Bisexual, Transgender - in der Film- und Medienbranche zum Thema.
+Und in der Rahmenhandlung von Kroymann hat Maren Kroymann gerade ein Shooting für den Playboy hinter sich.
+Immer noch würden Darsteller und Darstellerinnen sich scheuen, zu ihrem Queersein zu stehen, aus Angst vor negativen Auswirkungen, sagt Maren Kroymann.
+Maren Kroymann sagt: "Ich bin froh, dass Queersein 2021 auch sehr leicht sein kann, heiter, selbstverständlich."</t>
+  </si>
+  <si>
+    <t>Entschädigung, Steuerabzug bei Homeoffice-Pflicht | HZ</t>
+  </si>
+  <si>
+    <t>Digitale Technologien und flexibles Arbeiten halten Einzug – auch langfristig? HSG-Professorin Miriam Meckel: The episode was not found or is unavailable.</t>
+  </si>
+  <si>
+    <t>https://www.handelszeitung.ch/beruf/recht-auf-entschadigung-bei-homeoffice-pflicht-das-mussen-sie-wissen</t>
+  </si>
+  <si>
+    <t>Manche Arbeitnehmer arbeiten bereits seit Monaten zu Hause.
+Doch da es sich bisher nur um eine Empfehlung der Politik handelte und damit freiwillig war, gab es auch keinen Anspruch, vom Arbeitgeber entschädigt zu werden.
+Ändert sich dies nun?</t>
+  </si>
+  <si>
+    <t>Virtuelles WEF: Der Live-Blog zur «Davos Agenda»</t>
+  </si>
+  <si>
+    <t>NZZ</t>
+  </si>
+  <si>
+    <t>Januar, 20:15 Google-CEO Sundar Pichai im Gespräch mit Professorin und Firmengründerin Miriam Meckel. Google-CEO Sundar Pichai zeigte Verständnis für ...</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/wirtschaft/virtuelles-wef-putin-netanyahu-und-john-kerry-auf-der-rednerliste-ld.1598183</t>
+  </si>
+  <si>
+    <t>Zu der Gründung der neuen Gewerkschaft bei Google erklärte Pichai, dass die Angestellten ein wichtiger Teil des Firmen seien.
+11:00 Uhr Ursula von der Leyen, Präsidentin der EU-KommissionUrsula von der Leyen, die Präsidentin der EU-Kommission, geht darauf ein, wie sich dramatisch sich die Lage seit dem Davoser WEF vor einem Jahr verändert hat.
+Es sei von zentraler Bedeutung, dass solche Impfstoffe allen Länder der Welt zur Verfügung stünden, hält von der Leyen fest.
+Der deutsche Wirtschaftsminister Peter Altmaier betonte zur Bewältigung der Folgen von Corona die Notwendigkeit von offenen Märkten und der multilateralen Zusammenarbeit.
+Dabei sei die Regierung bereit, Lösungen für politische Probleme zu finden, die zu einer Verschlechterung der Beziehungen zu westlichen Ländern geführt hätten.</t>
+  </si>
+  <si>
+    <t>„Anne Will“ (ARD): Peter Altmaier mit Offenbarungseid – HIER zeigt er eine gnadenlose Wissenslücke</t>
+  </si>
+  <si>
+    <t>DerWesten</t>
+  </si>
+  <si>
+    <t>Die 54-Jährige begann ihre TV-Karriere als Moderatorin von Sport-Sendungen. 2019 trennte sie sich von ihrer Partnerin, der Professorin Miriam Meckel. ------------- ...</t>
+  </si>
+  <si>
+    <t>https://www.derwesten.de/politik/anne-will-ard-gaeste-thema-corona-impfungen-peter-altmaier-mediathek-bundeskanzlerin-angela-merkel-id231449697.html</t>
+  </si>
+  <si>
+    <t>Rücktritt als CEO: Um diese Projekte kann sich Amazon-Gründer Jeff Bezos jetzt mehr kümmern</t>
+  </si>
+  <si>
+    <t>Handelsblatt DisruptDie wichtigsten Tech-Trends 2021: Das große Jahresauftakt-Gespräch mit der Publizistin Miriam Meckel ...</t>
+  </si>
+  <si>
+    <t>https://www.handelsblatt.com/technik/forschung-innovation/ruecktritt-als-ceo-um-diese-projekte-kann-sich-amazon-gruender-jeff-bezos-jetzt-mehr-kuemmern/26879264.html</t>
+  </si>
+  <si>
+    <t>Und Bezos nannte einige Projekte, darunter einige unternehmerische Teilzeitaktivitäten, die er sich während seiner Amazon-Zeit nebenher geleistet hat.
+Mit der Stiftung Day 1 Fund will Bezos Obdachlosigkeit bekämpfen, 2018 stellte er dafür zwei Milliarden Dollar zur Verfügung.
+Der Bezos Earth Fund wurde erst vor gut einem Jahr mit einem Stiftungskapital von zehn Milliarden Dollar aus der Taufe gehoben.
+Der Politiker griff Bezos immer wieder an, entzog Journalisten der „Washington Post“ die Akkreditierung zum Weißen Haus und bezeichnete das Blatt als Lobbygruppe von Amazon.
+Allerdings gilt die Schmähung durch den Ex-Präsidenten ähnlich wie bei der „New York Times“ als Treiber der Neukundenzahlen.</t>
+  </si>
+  <si>
+    <t>Digital ist noch lange nicht normal!</t>
+  </si>
+  <si>
+    <t>Human Resources Manager</t>
+  </si>
+  <si>
+    <t>... Bildung und Wirtschaft wie der Publizistin und Kommunikationswissenschaftlerin Miriam Meckel, dem Vorstandsmitglied der Bertelsmannstiftung Jörg Dräger ...</t>
+  </si>
+  <si>
+    <t>https://www.humanresourcesmanager.de/news/digitalisierung-des-bildungssystems-digital-ist-noch-lange-nicht-normal.html</t>
+  </si>
+  <si>
+    <t>+++Allerdings sollten wir über den sinnvollen Einsatz digitaler Medien und über die Themen Bildung und Lernen reden.
+Lehren und Lernen auf Distanz ist unsere Kernaufgabe.
+Wir haben rund 80.000 Studierende, für die wir andersartige Bildungskonzepte erproben und erforschen.
+Es erfordert aus unserer Sicht, über die Grenzen einzelner Institutionen und politischer Zuständigkeiten hinweg zu denken und zu handeln.
+Die Fernuniversität in Hagen ist die einzige staatliche Fernuniversität im deutschsprachigen Raum und mit knapp 80.000 Studierenden die größte Hochschule Deutschlands.</t>
+  </si>
+  <si>
+    <t>Douglas-CEO Tina Müller und Otto-Chef Alexander Birken: Douglas-CEO: „Social Commerce ist das moderne Homeshopping“</t>
+  </si>
+  <si>
+    <t>Miriam Meckel. Sven Prange. 26.02.2021 - 14:44 Uhr Kommentieren. Jetzt teilen. Jetzt teilen. „Unsere Strategie heißt: Digital First.“ Quelle: German Select/Getty ...</t>
+  </si>
+  <si>
+    <t>https://www.handelsblatt.com/technik/digitale-revolution/doppelinterview-tina-mueller-und-alexander-birken-douglas-ceo-social-commerce-ist-das-moderne-homeshopping/26946868.html</t>
+  </si>
+  <si>
+    <t>Beim Gespräch via Zoom diskutieren sie über den Reiz von Marken, den gemeinsamen Konkurrenten Amazon und das Nachhaltigkeitsproblem der Branche.
+Das ist auch für die Motivation der Mitarbeiter*innen in den Filialen wichtig: Sie werden so zum Teil der Erfolgsgeschichte im E-Commerce.
+Denn das ist eine Kund*innengruppe, die wir seit Jahrzehnten in der Filiale begrüßen und die ihre Beraterinnen persönlich kennen und schätzen.
+Der Onlinehandelsumsatz der Otto Group ist im vergangenen Jahr um weit mehr als 20 Prozent gewachsen auf zehn Milliarden Euro.
+Das ist eine Live-Shopping- und Beauty-Show, in der wir unsere Marken und Produkte vorstellen.</t>
+  </si>
+  <si>
+    <t>Wie konnte das passieren … Magdalena Rogl ...</t>
+  </si>
+  <si>
+    <t>Absatzwirtschaft</t>
+  </si>
+  <si>
+    <t>Gemeinsam mit Frauen wie “Wirtschaftswoche”-Herausgeberin Miriam Meckel und Ex-Siemens-Vorständin Janina Kugel, die schon seit vielen Jahren zu ...</t>
+  </si>
+  <si>
+    <t>https://www.absatzwirtschaft.de/wie-konnte-das-passieren-magdalena-rogl-177385/</t>
+  </si>
+  <si>
+    <t>Als Head of Digital Channels verantwortet Magdalena Rogl seit 2016 die Social-Media-Kommunikation, Nachrichtenredaktion und Influencer-Relations bei Microsoft.
+VonVon welchem Job haben Sie als kleines Mädchen geträumt?
+Ich habe mich mit großer Begeisterung in die Themen eingearbeitet, unglaublich viel Networking betrieben und das meiste von anderen guten Leuten gelernt.
+Und die ist manchmal auch anstrengend und schwierig.
+schwärme ich anderen vor von … Dingen, für die ich mich engagiere, weil sie mir wirklich am Herzen liegen.</t>
+  </si>
+  <si>
+    <t>Benachrichtigung aktivieren Dürfen wir Sie in Ihrem Browser über die wichtigsten Nachrichten des Handelsblatts informieren?
+Sie erhalten 2-5 Meldungen pro Tag.
+Fast geschafft Erlauben Sie handelsblatt.com Ihnen Benachrichtigungen zu schicken.
+Dies können Sie in der Meldung Ihres Browsers bestätigen.</t>
+  </si>
+  <si>
+    <t>Vordenkerinnen: Diese Frauen entwerfen Ideen für Deutschland</t>
+  </si>
+  <si>
+    <t>... der digitalen Lernplattform ada: nur drei Stationen unter den vielen Betätigungsfeldern von Miriam Meckel, die zeigen, wie kreativ die einst jüngste Professorin ...</t>
+  </si>
+  <si>
+    <t>https://www.handelsblatt.com/unternehmen/management/vordenkerinnen-diese-frauen-entwerfen-ideen-fuer-deutschland/26961858.html</t>
+  </si>
+  <si>
+    <t>Themenwoche "business as female": THE SHIFT INITIATIVE by Handelsblatt Media Group setzt Schlaglicht auf...</t>
+  </si>
+  <si>
+    <t>Stephanie Coßmann (Arbeitsdirektorin LANXESS AG), Miriam Meckel (CEO ada Learning GmbH) oder Dennis Balslev (CEO/CSO IKEA) Deutschland diskutierten, ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/130118/4854610</t>
+  </si>
+  <si>
+    <t>Handelsblatt Media GroupThemenwoche "business as female": THE SHIFT INITIATIVE by Handelsblatt Media Group setzt Schlaglicht auf Diversität in der WirtschaftsweltDüsseldorf (ots)Mit ihrer Diversity-Initiative "THE SHIFT INITIATIVE" legt die Handelsblatt Media Group (HMG) gemeinsam mit bestehenden Initiativen und Unternehmen den Fokus auf Vielfalt als wirtschaftlichen Erfolgsfaktor.
+"Female Leadership ist ein Schlüssel zu einer diversen, inklusiven und nachhaltigen Wirtschaftswelt, die ihre Potenziale voll ausschöpft", sagt Andrea Wasmuth, Geschäftsführerin der Handelsblatt Media Group.
+Zur Handelsblatt Media Group gehören zudem Serviceunternehmen wie iq media marketing gmbh, führender Vermarkter für Entscheidermedien, Solutions by Handelsblatt Media Group GmbH, Spezialist für Corporate Content, Konzept und Vermarktung sowie weitere Beteiligungen.
+Über THE SHIFT INITIATIVE:THE SHIFT INITIATIVE ist die Diversity-Initiative der Handelsblatt Media Group.
+Mehr auf www.handelsblatt.com/adv/shift-initiativeOriginal-Content von: Handelsblatt Media Group, übermittelt durch news aktuell</t>
+  </si>
+  <si>
+    <t>Die Männer von der Werdstrasse - kleinreport.ch</t>
+  </si>
+  <si>
+    <t>Klein Report</t>
+  </si>
+  <si>
+    <t>Sozusagen auf der Zielgeraden brachte Res Strehle für diese Jahr neu noch Miriam Meckel (53), Professorin für Kommunikationswissenschaft an der ...</t>
+  </si>
+  <si>
+    <t>http://www.kleinreport.ch/news/die-manner-von-der-werdstrasse-96622/</t>
+  </si>
+  <si>
+    <t>Haben gut lachen: Neben Pietro Supino präsentierten acht weitere Männer die Jahresbilanzkonferenz der TX Group...Der Klein Report hat die Online-Präsentation der Zahlen der TX Group für 2020 verfolgt.
+Mitgearbeitet am Bericht haben Anita Bissig, Digital Analyst bei Tamedia, und die Ombudsmänner Ignaz Staub (72), seit 2010 im Amt, und Daniel Cornu (81).
+Sozusagen auf der Zielgeraden brachte Res Strehle für diese Jahr neu noch Miriam Meckel (53), Professorin für Kommunikationswissenschaft an der Universität St. Gallen, wohnhaft in Nordrhein-Westfalen, ins Team.
+Und neu darf auch der ehemalige Privatbankier Konrad Hummler (67), heute auch beim «Nebelspalter» als Aktionär dabei, mittun, der noch ein paar «offene Rechnungen» mit der Welt hat, nach dem Kollaps der Privatbank Wegelin.
+Gefolgt von Vinzenz Wyss (56) von der Zürcher Hochschule für Angewandte Wissenschaften (ZHAW).</t>
+  </si>
+  <si>
+    <t>Diversität Mutig in die Zukunft: 100 Frauen, die Deutschland ...</t>
+  </si>
+  <si>
+    <t>... Ratepay will Miriam Wohlfahrt in „wunderbare Hände“ abgeben, beim neuen ... Stationen unter den vielen Betätigungsfeldern von Miriam Meckel, die zeigen, ...</t>
+  </si>
+  <si>
+    <t>https://www.handelsblatt.com/unternehmen/management/diversitaet-mutig-in-die-zukunft-100-frauen-die-deutschland-bewegen/26961838.html</t>
+  </si>
+  <si>
+    <t>Gastkommentar: Das deutsche Digital-Desaster</t>
+  </si>
+  <si>
+    <t>Miriam Meckel: Deutschlands digitales Desaster ... Doch das scheint zu viel verlangt, rügt Miriam Meckel. 30.03.2021 - 04:00 Uhr 1 ... Miriam Meckel. Die Autorin ...</t>
+  </si>
+  <si>
+    <t>https://www.handelsblatt.com/meinung/gastbeitraege/gastkommentar-das-deutsche-digital-desaster/27032896.html</t>
+  </si>
+  <si>
+    <t>Während andere Länder konsequent in die digitale Infrastruktur und die Modernisierung des Staates investierten, hat sich Deutschland auf seinen Lorbeeren bürokratischer Effizienz und tüftlerischen Erfindergeists ausgeruht.
+Das fällt nicht auf, wenn die Zeiten gut und die Probleme überschaubar sind.
+Wie kann es sein, dass Deutschland und die Europäische Union bei der Impfstoffbestellung so gezaudert und um Preise gefeilscht haben?
+Da ist die Pandemie nicht das erste Beispiel.
+Das war der Beginn der „Flüchtlingskrise“, in deren Verlauf das Thema Migration zum Kampfthema in der deutschen Bevölkerung wurde.</t>
+  </si>
+  <si>
+    <t>Zitat: Miriam Meckel kritisiert die Digitalisierung der ...</t>
+  </si>
+  <si>
+    <t>Ada-Gründerin Miriam Meckel beklagt in ihrem Gastbeitrag im "Handelsblatt", dass "seit vielen Jahren" der politische Wille zur digitalen Transformation von ...</t>
+  </si>
+  <si>
+    <t>https://www.turi2.de/aktuell/zitat-miriam-meckel-kritisiert-die-digitalisierung-der-verwaltung-in-deutschland/</t>
+  </si>
+  <si>
+    <t>"Jetzt wird der Amtsschimmel entlarvt: Er ist kein Tier mehr, das gelegentlich etwas starrsinnig auf die Einhaltung von Regeln pocht, sondern der weiß-bläuliche, modrige Belag, der sich auf allem bildet, was zu lange links liegen gelassen wurde."
+"Ada"-Gründerin Miriam Meckel beklagt in ihrem Gastbeitrag im "Handelsblatt", dass "seit vielen Jahren" der politische Wille zur digitalen Transformation von Politik und Verwaltung in Deutschland fehle.
+handelsblatt.com (Paid)</t>
+  </si>
+  <si>
+    <t>Gastbeitrag - Maximilian mag's männlich: Warum die HSG über einen grundlegenden Kulturwandel nachdenken muss</t>
+  </si>
+  <si>
+    <t>St. Galler Tagblatt</t>
+  </si>
+  <si>
+    <t>Miriam Meckel, Professorin für Corporate Communication und Direktorin des Instituts für Medien- und Kommunikationsmanagement an der Universität St.Gallen.</t>
+  </si>
+  <si>
+    <t>https://www.tagblatt.ch/ostschweiz/gastbeitrag-maximilian-mags-maennlich-warum-die-hsg-ueber-einen-grundlegenden-kulturwandel-nachdenken-muss-ld.2115785</t>
+  </si>
+  <si>
+    <t>Gastbeitrag Maximilian mag's männlich: Warum die HSG über einen grundlegenden Kulturwandel nachdenken muss Die Studierenden der Universität St.Gallen sprechen sich gegen eine Umbenennung der Studentenschaft in Studierendenschaft aus.
+Er mag keine Normalverdiener, Linke erst recht nicht, und er ist latent homophob (was er nie zugeben würde).
+Bild: PDIn der vergangenen Woche stimmten die Studierenden der Universität St.Gallen über die Frage ab, ob sie weiterhin «Studentenschaft» heissen wollen.
+Wir glauben, die Studierenden haben sich selbst und der Universität St.Gallen mit diesem Entscheid einen Bärendienst erwiesen.
+Der Entscheid der Studierenden sollte Anlass für die HSG sein, über einen grundlegenderen Kulturwandel hin zu einer modernen, inklusiven Universität nachzudenken.</t>
+  </si>
+  <si>
+    <t>Wer ist Anne Will?</t>
+  </si>
+  <si>
+    <t>Berliner Morgenpost</t>
+  </si>
+  <si>
+    <t>Anne Will lebt heute in Berlin. Bis 2019 war sie mit der Kommunikationswissenschaftlerin und Journalistin Miriam Meckel liiert. (nfz). Top-Events in Berlin.</t>
+  </si>
+  <si>
+    <t>https://www.morgenpost.de/kultur/tv/article231868557/Anne-Will-Die-wichtigsten-Fakten-zur-Moderatorin.html</t>
+  </si>
+  <si>
+    <t>Sie ist die erste Frau, die je die Sportschau moderierte.
+Doch wer ist Anne Will eigentlich?
+Gleichzeitig ist sie auch Geschäftsführerin der Produktionsfirma "Will Media", die die Talkshow im Auftrag der ARD produziert.
+Anne Will - So liefen letzte SendungenFür ihre Tätigkeit als Moderatorin wurde Anne Will mehrfach ausgezeichnet.
+Damals kostete eine Minute der Talkshow "Anne Will" 2400 Euro.</t>
+  </si>
+  <si>
+    <t>Studie: Findige Kleinunternehmen nutzen Pandemie für Weiterbildung</t>
+  </si>
+  <si>
+    <t>In eigener SacheMiriam Meckel: „Nicht meckern, sondern machen“. 0 Kommentare zu "Studie: Findige Kleinunternehmen nutzen Pandemie für Weiterbildung ".</t>
+  </si>
+  <si>
+    <t>https://www.handelsblatt.com/politik/deutschland/studie-findige-kleinunternehmen-nutzen-pandemie-fuer-weiterbildung-/27022224.html</t>
+  </si>
+  <si>
+    <t>Für Unternehmen immens wichtig: Die Weiterbildung ihrer Arbeitnehmer hilft auch gegen den Fachkräftemangel.
+Berlin Knapp jedes fünfte Unternehmen, das 2020 Mitarbeiter in Kurzarbeit schickte, hat die Krise zugleich für Weiterbildung genutzt.
+Sie seien daher bereit, mehr zu investieren, um die Beschäftigten – auch während der Krise – im Unternehmen zu halten.
+Zugleich ist auch die Nutzung digitaler Lernmedien bei kleinen Unternehmen am stärksten gestiegen – und hat ebenfalls dazu beigetragen, einen Einbruch der Weiterbildung insgesamt zu verhindern.
+Im Lockdown 2020 nutzen vor allem die Unternehmen digitale Medien, die schon Erfahrung damit hatten.</t>
+  </si>
+  <si>
+    <t>Morning Briefing : Der Lästigkeitswert des Markus Söder</t>
+  </si>
+  <si>
+    <t>HRI-Präsident Bert Rürup, Studienautor Sven Jung, Kommunikationsprofessorin Miriam Meckel, Baden-Württembergs Wirtschaftsministerin Nicole Hoffmeister- ...</t>
+  </si>
+  <si>
+    <t>https://www.handelsblatt.com/meinung/morningbriefing/morning-briefing-der-laestigkeitswert-des-markus-soeder/27089162.html</t>
+  </si>
+  <si>
+    <t>Der an höchster Stelle abgesegnete CDU-Chef Armin Laschet wird mit der Beklemmung leben müssen, diese Woche noch ein wenig von Söder getrieben und getriezt zu werden.
+Wenn die Klage der Gruß des Kaufmanns (oder der Kauffrau) ist, dann ist die Beschwerde über Bürokratie der Gruß des Politikers.
+Es ist der zweitgrößte Deal in der Geschichte von Microsoft, nach dem Kauf des Karrierenetzwerks Linkedin im Jahr 2016.
+Der Chef der Rüstungssparte hat zuletzt mit Partnern wie Dassault und den Regierungen Frankreichs, Deutschlands und Spaniens über das neue Luftkampfsystem FCAS verhandelt.
+Das Handelsblatt Research Institute (HRI) hat in einer Studie für die Dieter von Holtzbrinck Stiftung Lösungen aufgezeigt: „Qualifizierungsstrategie für die digitale Arbeitswelt“.</t>
+  </si>
+  <si>
+    <t>turi2 am Morgen: Pressekodex, Ricarda Lang, Miriam Meckel ...</t>
+  </si>
+  <si>
+    <t>Menschine: Miriam Meckel (Foto) und Léa Steinacker geben die neue wissenschaftliche Zeitschrift “Morals &amp; Machines” heraus. Sie erscheint zweimal jährlich ...</t>
+  </si>
+  <si>
+    <t>https://www.turi2.de/heute/turi2-am-morgen-22-04-2021/</t>
+  </si>
+  <si>
+    <t>Darin heißt es, die Medien seien “wesentlicher Bestandteil des öffentlichen Meinungsbildungsprozesses”, weshalb sie “im Rahmen der gesetzlichen Vorgaben und der Gleichbehandlung” aktiv unterstützt würden.
+Der Innenminister des Landes, Thomas Strobl von der CDU, sieht Baden-Württemberg nun als “bundesweiten Vorreiter” im Hinblick auf die Transparenz des staatlichen Handelns.
+Digitale Gewalt, schreibt sie in ihrem Gastbeitrag für die turi2 edition #14, sei keine Lappalie, sondern ein Angriff auf die Demokratie.
+– NEWS –Menschine: Miriam Meckel (Foto) und Léa Steinacker geben die neue wissenschaftliche Zeitschrift “Morals &amp; Machines” heraus.
+presseportal.deInstagram führt eine Funktion ein, die Hassrede und Beleidigungen in Privatnachrichten herausfiltert.</t>
+  </si>
+  <si>
+    <t>Anne Will privat: Ex-Frau, Spitzname und mehr - DAS weiß man über sie</t>
+  </si>
+  <si>
+    <t>Zu ihrer Homosexualität bekannte sie sich öffentlich. Im Jahr 2007 machte sie ihre Beziehung zu Miriam Meckel publik. 2016 heirateten die beiden Frauen in ...</t>
+  </si>
+  <si>
+    <t>https://www.derwesten.de/politik/anne-will-moderatorin-ard-tagesthemen-sportschau-ehefrau-miriam-meckel-homosexuell-spitzname-privatleben-id231817411.html</t>
+  </si>
+  <si>
+    <t>(Archivbild)Anne Will privat: DAS weiß man über die ARD-ModeratorinAnne Will ist aus der deutschen Polit-Talk-Fernsehlandschaft nicht mehr wegzudenken.
+Anne Will privat und beruflich: Steile Karriere der Kölnerin zur eigenen TalkshowAnne Will wurde 1966 in Köln als Tochter eines Schreinermeisters und einer ehemaligen Postangestellten geboren.
+Ihr Abitur schloss sie mit der Note 1,5 ab.
+Dann erhielt sie mit „Anne Will“ ihre eigene Talkshow in der ARD, welche sie auch bis heute moderiert.
++++ Markus Lanz privat: DIESER Schicksalsschlag prägte sein Leben +++Anne Will: Die Moderatorin (links) und ihre Ehefrau Miriam Meckel (rechts) trennten sich 2019.</t>
+  </si>
+  <si>
+    <t>Nomos gründet Zeitschrift Morals &amp; Machines, Nomos ...</t>
+  </si>
+  <si>
+    <t>Miriam Meckel und Léa Steinacker eine neue wissenschaftliche Fachzeitschrift. Morals &amp; Machines startet im Juni bei Nomos und widmet sich der Frage, wie ...</t>
+  </si>
+  <si>
+    <t>https://www.pressebox.de/inaktiv/nomos-verlagsgesellschaft-mbh-co-kg/Nomos-gruendet-Zeitschrift-Morals-Machines/boxid/1056289</t>
+  </si>
+  <si>
+    <t>Morals &amp; Machines startet im Juni bei Nomos und widmet sich der Frage, wie Algorithmen und Künstliche Intelligenz die Welt verändern und welche technologischen und moralischen Herausforderungen damit einhergehen.
+Heft 1 der englischsprachigen interdisziplinären Wissenschaftszeitschrift Morals &amp; Machines erscheint im Juni im Zusammenhang mit der gleichnamigen Veranstaltung der Ada Learning GmbH.
+Miriam Meckel zur Gründung der Morals &amp; Machines: „Jede neue Technologie fordert unser kritisches Denken bezüglich ihrer gesellschaftlichen, wirtschaftlichen und rechtlichen Auswirkungen.
+Diese bestimmen letztlich, wie wir mit der Vergangenheit, Gegenwart und Zukunft von Maschinen umgehen.“Die Redaktion übernimmt Prof. Dr. Christian Fieseler, BI Norwegian Business School, Oslo.
+Algorithmen formen uns als Gesellschaft und uns als Menschen und stellen uns vor immer neue Herausforderungen.</t>
+  </si>
+  <si>
+    <t>Nomos gründet Zeitschrift "Morals &amp; Machines"</t>
+  </si>
+  <si>
+    <t>Presseportal</t>
+  </si>
+  <si>
+    <t>Der Nomos Verlag launcht mit den Herausgeberinnen Prof. Dr. Miriam Meckel und Léa Steinacker eine neue wissenschaftliche Fachzeitschrift.</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/57192/4900693</t>
+  </si>
+  <si>
+    <t>Nomos Verlagsgesellschaft mbH &amp; Co. KGNomos gründet Zeitschrift "Morals &amp; Machines"Bild-InfosDownload4 weitere MedieninhalteDer Nomos Verlag launcht mit den Herausgeberinnen Prof. Dr. Miriam Meckel und Léa Steinacker eine neue wissenschaftliche Fachzeitschrift.
+Morals &amp; Machines startet im Juni bei Nomos und widmet sich der Frage, wie Algorithmen und Künstliche Intelligenz die Welt verändern und welche technologischen und moralischen Herausforderungen damit einhergehen.
+Heft 1 der englischsprachigen interdisziplinären Wissenschaftszeitschrift Morals &amp; Machines erscheint im Juni im Zusammenhang mit der gleichnamigen Veranstaltung der Ada Learning GmbH.
+Miriam Meckel zur Gründung der Morals &amp; Machines: „Jede neue Technologie fordert unser kritisches Denken bezüglich ihrer gesellschaftlichen, wirtschaftlichen und rechtlichen Auswirkungen.
+Algorithmen formen uns als Gesellschaft und uns als Menschen und stellen uns vor immer neue Herausforderungen.</t>
+  </si>
+  <si>
+    <t>Handelsblatt Research Institut: HRI-Studie: Staat muss den völlig unübersichtlichen Markt für Weiterbildung klarer strukturieren</t>
+  </si>
+  <si>
+    <t>Auch Miriam Meckel, CEO der ada Learning GmbH, warnte: „Wenn wir die Weiterbildung beim Staat zentralisieren, anstatt sie den Unternehmen zu überlassen, ...</t>
+  </si>
+  <si>
+    <t>https://www.handelsblatt.com/politik/deutschland/handelsblatt-research-institut-hri-studie-staat-muss-den-voellig-unuebersichtlichen-markt-fuer-weiterbildungklarer-strukturieren/27094450.html</t>
+  </si>
+  <si>
+    <t>Ebenso überfällig wie die Modernisierung des Schulunterrichts ist jedoch eine Reform der Weiterbildung der Millionen Erwerbstätigen, konstatiert nun eine Studie des Handelsblatt Research Institute (HRI).
+Die Privatwirtschaft und die Erwerbstätigen selbst trügen zwar die Hauptverantwortung für die Organisation und Finanzierung der Weiterbildung während des Berufslebens.
+Die Botschaft der HRI-Studie ist jedenfalls eindeutig: Der Staat muss den völlig unübersichtlichen Markt für Weiterbildung klarer strukturieren und unabhängige Information für Betriebe und Arbeitnehmer organisieren.
+Die Bemühungen der Bundesregierung, die Weiterbildung substanziell voranzubringen, kritisieren die HRI-Autoren als verdienstvoll, aber viel zu zaghaft.
+Unklar ist das Volumen der Weiterbildung: Die Gesamtausgaben werden lediglich auf ein Prozent der gesamten Bildungsausgaben von 300 Milliarden Euro pro Jahr geschätzt, heißt es in der HRI-Studie.</t>
+  </si>
+  <si>
+    <t>ada Learning GmbH Lern-Designer:in in Elternzeitvertretung ...</t>
+  </si>
+  <si>
+    <t>Deutsche-Startups.de</t>
+  </si>
+  <si>
+    <t>... die ada Learning GmbH seit 2020 ein eigenständiges Unternehmen, geführt von den drei Gründerinnen Miriam Meckel, Léa Steinacker und Verena Pausder.</t>
+  </si>
+  <si>
+    <t>http://www.deutsche-startups.de/startups-jobs/stellenangebote/ada-learning-gmbh-lern-designer-in-in-elternzeitvertretung-mit-option-einer-dauerhaften-festeinstellung-m-w-d-25369/</t>
+  </si>
+  <si>
+    <t>In der Handelsblatt Media Group gestartet, ist die ada Learning GmbH seit 2020 ein eigenständiges Unternehmen, geführt von den drei Gründerinnen Miriam Meckel, Léa Steinacker und Verena Pausder.
+Wir bieten unseren Partnern mit unserem einjährigen berufsbegleitenden Weiterbildungsprogramm, dem ada | fellowship hochkarätiges Know-how zu technologischem Wandel und Zukunftskompetenzen, die wir über digitale Lerninhalte, Praxisprojekte, Live-Events und ein branchenübergreifendes Netzwerk vermitteln.
+Im ada-Team arbeiten wir teamorientiert, agil und mit flachen Hierarchien.
+Und wir wünschen uns Ownership: Was getan werden muss, wird getan, wofür ich zuständig bin, erledige ich selbständig und verlässlich.
+Wie Du Dich bewerben kannstSchick uns bis zum 31.05.2021 Deine Bewerbung, aus der wir Deine Motivation, Deine Qualitäten und Deine Gehaltsvorstellungen erkennen können, über unsere Karriereseite.</t>
+  </si>
+  <si>
+    <t>Lesen Sie «durchschaut!» #356: Irgendetwas stimmt nicht mehr</t>
+  </si>
+  <si>
+    <t>Glaskugel-Gesellschaft</t>
+  </si>
+  <si>
+    <t>Im November 2020 – mitten in der zweiten Covid-19-Bedrohungswelle und der turbulenten Präsidentenwahl in den USA – äussert sich Miriam Meckel, ...</t>
+  </si>
+  <si>
+    <t>https://www.glaskugel-gesellschaft.ch/durchschaut/gesellschaft-jugend/29-april-2021/356-irgendetwas-stimmt-nicht-mehr</t>
+  </si>
+  <si>
+    <t>Viele Menschen stellen sich die Frage, ob gar die Bezeichnung «Epochenwechsel» für die sich am Horizont abzeichnenden Verwerfungen verwendet werden darf.
+Wenn wir uns heute fragen, ob die Covid-19-Pandemie diesen Impact haben wird, kennen wir die Antwort natürlich nicht.
+«Wo es kein klares Schwarz und Weiss mehr gibt, greift manch einer auf die Verschwörungstheorie und die Polit-Science-Fiction zurück», sagt sie in der NZZ.
+Sie ist auch nicht eine blosse Krise der Moral, der Wirtschaft, der Ideologien, der Politik, der Religion.
+Sind Sie bei der Reflexion einzelner Aussagen gedanklich soweit angeregt worden, dass Sie sich näher mit der Epochenwandel-Theorie befassen wollen?</t>
+  </si>
+  <si>
+    <t>Symposium - Sebastian Kurz: «Nur wenn Sie auf einer Insel leben, lassen sich Coronawellen verhindern»</t>
+  </si>
+  <si>
+    <t>Der österreichische Bundeskanzler Sebastian Kurz im Gespräch mit HSG-Professorin Miriam Meckel. Ralph Ribi. Da sitzt er also, direkt aus Wien zugeschaltet.</t>
+  </si>
+  <si>
+    <t>https://www.tagblatt.ch/wirtschaft/symposium-sebastian-kurz-nur-wenn-sie-auf-einer-insel-leben-lassen-sich-coronawellen-verhindern-ld.2133516</t>
+  </si>
+  <si>
+    <t>Symposium Sebastian Kurz: «Nur wenn Sie auf einer Insel leben, lassen sich Coronawellen verhindern» Der österreichische Staatschef Sebastian Kurz erklärt am St. Gallen Symposium, was er aus der Coronakrise gelernt hat - und was die EU hätte besser machen können.
+Wenn Sebastian Kurz - so etwas wie der Stargast am diesjährigen Symposium - spricht, fällt es leicht, ihm zuzuhören.
+Denn auch Kurz, der jüngste Staatschef der Welt, muss auf diplomatische Gepflogenheiten achten.
+Doch dann sei die Krise immer länger gegangen und die Kritik und mit ihr die Kakophonie unter den Experten nahm zu.
+Das Leben habe viele schöne Seiten und er könne sich für vieles begeistern, sagte Kurz vor einer Woche im Interview mit der NZZ.</t>
+  </si>
+  <si>
+    <t>Livestream - St.Gallen Symposium: Österreichs Kanzler Sebastian Kurz und HSG-Professorin Miriam Meckel über Vertrauen in die Politik während einer Pandemie</t>
+  </si>
+  <si>
+    <t>Verfolgen Sie die Diskussion zwischen Bundeskanzler Sebastian Kurz und der HSG-Professorin Miriam Meckel hier live. 05.05.2021, 05.55 Uhr.</t>
+  </si>
+  <si>
+    <t>https://www.tagblatt.ch/ostschweiz/livestream-stgallen-symposium-oesterreichs-kanzler-sebastian-kurz-und-hsg-professorin-miriam-meckel-ueber-vertrauen-in-die-politik-waehrend-einer-pandemie-ld.2132213</t>
+  </si>
+  <si>
+    <t>Agile / Design Thinking Coach (m/w/d) Job bei ada Learning ...</t>
+  </si>
+  <si>
+    <t>Gründerszene Jobbörse</t>
+  </si>
+  <si>
+    <t>https://recruiting.gruenderszene.de/jobs/61436218-agile-design-thinking-coach-m-w-d-bei-ada-learning-gmbh</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,7 +600,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,6 +623,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -208,24 +642,43 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -267,7 +720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,9 +752,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,6 +804,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,21 +997,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -534,151 +1028,860 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44200</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44209</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44209</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44207</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44224</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>44214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44225</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44229</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44230</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44250</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44253</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44242</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44260</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="5">
+        <v>44259</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5">
+        <v>44267</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
+        <v>44260</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44299.474421296298</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5">
+        <v>44299.474421296298</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="5">
+        <v>44272</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="5">
+        <v>44299.474421296298</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>44299.474421296298</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44299.474849537037</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
+      <c r="D24" s="5">
+        <v>44308.475185185183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44308.475185185183</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="5">
+        <v>44315.475185185183</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44315.475185185183</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5">
+        <v>44301.475185185183</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="5">
+        <v>44308.475185185183</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="5">
+        <v>44315.475185185183</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="5">
+        <v>44322.475474537037</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44322.475474537037</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44322.475474537037</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{A8C59E85-AF06-4015-BA23-D009DA3D6417}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{4066964C-844E-4DF0-9AAE-21DD2B26F151}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{E5FE807C-006E-4FD5-A296-C3C6B8514218}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{647FCF17-A081-4BF4-B7D7-CC5BC9052A2F}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{9155EB90-B955-4DD8-B066-F4E3B2EB742C}"/>
+    <hyperlink ref="F32" r:id="rId10" xr:uid="{D55EAB85-C5EE-48EA-8967-BCC2670C5F38}"/>
+    <hyperlink ref="F31" r:id="rId11" xr:uid="{9FCCCD3B-8658-44BA-85C1-CA4539B677A0}"/>
+    <hyperlink ref="F30" r:id="rId12" xr:uid="{A5B863AC-25AF-4046-8571-10A300B27809}"/>
+    <hyperlink ref="F29" r:id="rId13" xr:uid="{447718BB-FEE7-4714-AFEC-2594899FE54F}"/>
+    <hyperlink ref="F11" r:id="rId14" xr:uid="{E653854B-B16B-4619-B417-41275C3A506F}"/>
+    <hyperlink ref="F12" r:id="rId15" xr:uid="{10C97575-C3AA-4A66-9F14-BE78B4EA418A}"/>
+    <hyperlink ref="F13" r:id="rId16" xr:uid="{1BD654BC-B097-4DFC-8B8B-5516081ACC25}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{C9E10422-ADD4-4487-BB44-98D1BD7571CD}"/>
+    <hyperlink ref="F28" r:id="rId18" xr:uid="{A7E7DF16-ABE3-41DA-84CB-4E9E678D1059}"/>
+    <hyperlink ref="F26" r:id="rId19" xr:uid="{E8729531-F3C3-4E57-9608-2ECCE2473FC2}"/>
+    <hyperlink ref="F25" r:id="rId20" xr:uid="{4B8ADB95-C934-41B4-9DFF-479541BAB83E}"/>
+    <hyperlink ref="F24" r:id="rId21" xr:uid="{AF642476-E6C9-4FC3-A99B-04E94E51A4B9}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{57609B36-B7FB-4403-B07F-56497762CBBF}"/>
+    <hyperlink ref="F15" r:id="rId23" xr:uid="{C091AFA4-0525-46B8-8615-8F237814948E}"/>
+    <hyperlink ref="F16" r:id="rId24" xr:uid="{F0ECD4A7-E4E1-41D0-99F6-2B67F77EBA5C}"/>
+    <hyperlink ref="F17" r:id="rId25" xr:uid="{7F6C192D-F356-48D3-80C5-0B95027691EF}"/>
+    <hyperlink ref="F18" r:id="rId26" xr:uid="{BCEBE1F2-1CFB-4EC2-A355-4ADC8EF2BF28}"/>
+    <hyperlink ref="F19" r:id="rId27" xr:uid="{607B6E63-18C4-42FE-BD9B-D6FBFA461D54}"/>
+    <hyperlink ref="F27" r:id="rId28" xr:uid="{398175EE-9F7A-4779-A1DB-30097895B8DE}"/>
+    <hyperlink ref="F21" r:id="rId29" xr:uid="{5B91AD5F-98AB-4032-95A1-D63766DDB3E5}"/>
+    <hyperlink ref="F22" r:id="rId30" xr:uid="{465A0AD9-2C7C-473B-ACCE-F368C14AA5EE}"/>
+    <hyperlink ref="F20" r:id="rId31" xr:uid="{34E14463-7D1A-4821-BB6D-429216728838}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{0BB62A7E-66A3-43E9-BC89-A021D8EA9A68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId33"/>
 </worksheet>
 </file>